--- a/templates/Inputs.xlsx
+++ b/templates/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean\Dropbox\NREL Work\Year 2020\NOVA\Metrics at Scale\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4F8CA-49F6-4209-9513-357CD0E33F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861DF7F-9627-4C8A-A2BD-424C3D8CDF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -135,18 +135,6 @@
     <t>metrics_folder</t>
   </si>
   <si>
-    <t>./REopt Posts</t>
-  </si>
-  <si>
-    <t>./REopt Results</t>
-  </si>
-  <si>
-    <t>./Solar Factors</t>
-  </si>
-  <si>
-    <t>./Metrics</t>
-  </si>
-  <si>
     <t>added_solar</t>
   </si>
   <si>
@@ -154,6 +142,18 @@
   </si>
   <si>
     <t>added_storage_to_solar</t>
+  </si>
+  <si>
+    <t>REopt Posts</t>
+  </si>
+  <si>
+    <t>REopt Results</t>
+  </si>
+  <si>
+    <t>Solar Factors</t>
+  </si>
+  <si>
+    <t>Metrics</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729E14E-2CD5-4EB7-BC48-68BEC5CD5108}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +749,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
